--- a/Programmierer/Server-Housten Protokoll.xlsx
+++ b/Programmierer/Server-Housten Protokoll.xlsx
@@ -565,8 +565,10 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
